--- a/datos_terreno_1.xlsx
+++ b/datos_terreno_1.xlsx
@@ -49,10 +49,10 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
@@ -537,7 +537,7 @@
         <v>0.45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -570,7 +570,7 @@
         <v>0.2</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
